--- a/uploads/gb.xlsx
+++ b/uploads/gb.xlsx
@@ -1,8 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alsh/PycharmProjects/BankTransactions/uploads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E279E4B-E350-B440-AB0F-1AD6A4446DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insättningsuppgift via internet" sheetId="1" r:id="rId1"/>
@@ -10,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Insättningsuppgift via internet'!$A:$H</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Hclnr: 9500 | Datum: 2022-10-25 11:44:24</t>
   </si>
@@ -35,9 +43,6 @@
     <t>Mottagare</t>
   </si>
   <si>
-    <t>2022-10-24</t>
-  </si>
-  <si>
     <t>9960 42 08618654</t>
   </si>
   <si>
@@ -50,7 +55,7 @@
     <t>Marieholmsgatan 42</t>
   </si>
   <si>
-    <t xml:space="preserve">415 02  GÖTEBORG</t>
+    <t>415 02  GÖTEBORG</t>
   </si>
   <si>
     <t>Sverige</t>
@@ -101,7 +106,7 @@
     <t>Betalningsreferens</t>
   </si>
   <si>
-    <t xml:space="preserve">Bankgironummer/
+    <t>Bankgironummer/
 Avinummer</t>
   </si>
   <si>
@@ -123,7 +128,7 @@
     <t>Nej</t>
   </si>
   <si>
-    <t xml:space="preserve">KAPRISGATAN 73 LGH 1001
+    <t>KAPRISGATAN 73 LGH 1001
 424 44  ANGERED</t>
   </si>
   <si>
@@ -136,7 +141,7 @@
     <t>593841131405</t>
   </si>
   <si>
-    <t xml:space="preserve">KNEKTGATAN 4 LGH 1002
+    <t>KNEKTGATAN 4 LGH 1002
 587 38  LINKÖPING</t>
   </si>
   <si>
@@ -149,7 +154,7 @@
     <t>593840267595</t>
   </si>
   <si>
-    <t xml:space="preserve">GREVEGÅRDSVÄGEN 182 LGH 1101
+    <t>GREVEGÅRDSVÄGEN 182 LGH 1101
 421 61  VÄSTRA FRÖLUNDA</t>
   </si>
   <si>
@@ -162,7 +167,7 @@
     <t>593841079264</t>
   </si>
   <si>
-    <t xml:space="preserve">SANDSPÅRET 45 LGH 1201
+    <t>SANDSPÅRET 45 LGH 1201
 424 31  ANGERED</t>
   </si>
   <si>
@@ -175,7 +180,7 @@
     <t>593840297033</t>
   </si>
   <si>
-    <t xml:space="preserve">PLANETGATAN 10 C
+    <t>PLANETGATAN 10 C
 784 53  BORLÄNGE</t>
   </si>
   <si>
@@ -188,16 +193,15 @@
     <t>593840267594</t>
   </si>
   <si>
-    <t xml:space="preserve">STORSKIFTESGATAN 81 LGH 1102
+    <t>STORSKIFTESGATAN 81 LGH 1102
 583 34  LINKÖPING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -236,70 +240,98 @@
     <border>
       <left/>
       <right/>
-      <top style="thick"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -320,7 +352,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" descr="" name="logotype"/>
+        <xdr:cNvPr id="2" name="logotype">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -346,37 +384,333 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" style="1"/>
-    <col min="2" max="2" width="20" customWidth="1" style="1"/>
-    <col min="3" max="3" width="30" customWidth="1" style="1"/>
-    <col min="4" max="4" width="30" customWidth="1" style="1"/>
-    <col min="5" max="5" width="15" customWidth="1" style="1"/>
-    <col min="6" max="6" width="7" customWidth="1" style="1"/>
-    <col min="7" max="7" width="45" customWidth="1" style="1"/>
-    <col min="8" max="8" width="55" customWidth="1" style="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -386,7 +720,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -398,7 +732,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -408,69 +742,69 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>44861</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -480,9 +814,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -492,65 +826,65 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7">
         <v>22712</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9">
         <v>22712</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -558,7 +892,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -568,219 +902,220 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="11" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="7">
         <v>635</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="H19" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="7">
         <v>1275</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="7">
         <v>2517</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E22" s="7">
         <v>4000</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E23" s="7">
         <v>5600</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="7">
         <v>8685</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="13">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
-  <headerFooter differentOddEven="0" differentFirst="0">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
     <oddFooter>&amp;L© 2018 Bankgirot</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
